--- a/SPP3-dynamic-small.xlsx
+++ b/SPP3-dynamic-small.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="18468" windowHeight="9420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PDR" sheetId="1" r:id="rId1"/>
-    <sheet name="Trained" sheetId="2" r:id="rId2"/>
-    <sheet name="compare" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="trained" sheetId="2" r:id="rId2"/>
+    <sheet name="reused" sheetId="5" r:id="rId3"/>
+    <sheet name="retrained" sheetId="6" r:id="rId4"/>
+    <sheet name="compare" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="85">
   <si>
     <t>instances</t>
   </si>
@@ -145,6 +147,18 @@
     <t>min-trained</t>
   </si>
   <si>
+    <t>data_set_rescheduling_new_small-reused</t>
+  </si>
+  <si>
+    <t>converge_cnt</t>
+  </si>
+  <si>
+    <t>total_time</t>
+  </si>
+  <si>
+    <t>min-reused</t>
+  </si>
+  <si>
     <t>min PDR</t>
   </si>
   <si>
@@ -158,6 +172,12 @@
   </si>
   <si>
     <t>new_policy</t>
+  </si>
+  <si>
+    <t>trained_policy</t>
+  </si>
+  <si>
+    <t>reused_policy</t>
   </si>
   <si>
     <t>7x6</t>
@@ -899,7 +919,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -916,9 +936,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4425,1073 +4442,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>reused_policy*</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$2:$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>ft06_new_25%
-(7x6)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ft06_new_50%
-(7x6)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ft06_new_75%
-(7x6)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>orb01_new_25%
-(11x10)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>orb01_new_50%
-(11x10)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>orb01_new_75%
-(11x10)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>la21_new_25%
-(16x10)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>la21_new_50%
-(16x10)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>la21_new_75%
-(16x10)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>la26_new_25%
-(21x10)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>la26_new_50%
-(21x10)</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>la26_new_75%
-(21x10)</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>abz7_new_25%
-(21x15)</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>abz7_new_50%
-(21x15)</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>abz7_new_75%
-(21x15)</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>ta21_new_25%
-(21x20)</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>ta21_new_50%
-(21x20)</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>ta21_new_75%
-(21x20)</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>dmu16_new_25%
-(31x20)</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>dmu16_new_50%
-(31x20)</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>dmu16_new_75%
-(31x20)</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>ta61_new_25%
-(51x20)</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>ta61_new_50%
-(51x20)</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>ta61_new_75%
-(51x20)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>644</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>929</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>654</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1033</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>737</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>611</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>562</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>385</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1477</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1046</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>903</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3452</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2917</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2463</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2503</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1768</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1111</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>new_policy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$2:$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>ft06_new_25%
-(7x6)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ft06_new_50%
-(7x6)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ft06_new_75%
-(7x6)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>orb01_new_25%
-(11x10)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>orb01_new_50%
-(11x10)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>orb01_new_75%
-(11x10)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>la21_new_25%
-(16x10)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>la21_new_50%
-(16x10)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>la21_new_75%
-(16x10)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>la26_new_25%
-(21x10)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>la26_new_50%
-(21x10)</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>la26_new_75%
-(21x10)</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>abz7_new_25%
-(21x15)</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>abz7_new_50%
-(21x15)</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>abz7_new_75%
-(21x15)</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>ta21_new_25%
-(21x20)</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>ta21_new_50%
-(21x20)</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>ta21_new_75%
-(21x20)</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>dmu16_new_25%
-(31x20)</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>dmu16_new_50%
-(31x20)</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>dmu16_new_75%
-(31x20)</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>ta61_new_25%
-(51x20)</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>ta61_new_50%
-(51x20)</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>ta61_new_75%
-(51x20)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>644</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>579</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>936</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>646</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1007</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>730</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>644</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>597</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>303</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1414</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1036</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>941</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3643</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2754</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2458</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2510</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1711</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1026</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$2:$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>ft06_new_25%
-(7x6)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ft06_new_50%
-(7x6)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ft06_new_75%
-(7x6)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>orb01_new_25%
-(11x10)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>orb01_new_50%
-(11x10)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>orb01_new_75%
-(11x10)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>la21_new_25%
-(16x10)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>la21_new_50%
-(16x10)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>la21_new_75%
-(16x10)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>la26_new_25%
-(21x10)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>la26_new_50%
-(21x10)</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>la26_new_75%
-(21x10)</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>abz7_new_25%
-(21x15)</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>abz7_new_50%
-(21x15)</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>abz7_new_75%
-(21x15)</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>ta21_new_25%
-(21x20)</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>ta21_new_50%
-(21x20)</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>ta21_new_75%
-(21x20)</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>dmu16_new_25%
-(31x20)</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>dmu16_new_50%
-(31x20)</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>dmu16_new_75%
-(31x20)</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>ta61_new_25%
-(51x20)</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>ta61_new_50%
-(51x20)</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>ta61_new_75%
-(51x20)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>min_trained</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$2:$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>ft06_new_25%
-(7x6)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ft06_new_50%
-(7x6)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ft06_new_75%
-(7x6)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>orb01_new_25%
-(11x10)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>orb01_new_50%
-(11x10)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>orb01_new_75%
-(11x10)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>la21_new_25%
-(16x10)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>la21_new_50%
-(16x10)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>la21_new_75%
-(16x10)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>la26_new_25%
-(21x10)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>la26_new_50%
-(21x10)</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>la26_new_75%
-(21x10)</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>abz7_new_25%
-(21x15)</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>abz7_new_50%
-(21x15)</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>abz7_new_75%
-(21x15)</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>ta21_new_25%
-(21x20)</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>ta21_new_50%
-(21x20)</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>ta21_new_75%
-(21x20)</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>dmu16_new_25%
-(31x20)</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>dmu16_new_50%
-(31x20)</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>dmu16_new_75%
-(31x20)</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>ta61_new_25%
-(51x20)</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>ta61_new_50%
-(51x20)</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>ta61_new_75%
-(51x20)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>644</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>677</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1039</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>755</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>611</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>582</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>401</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1487</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1046</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>941</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3549</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2767</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2456</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2468</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1754</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1119</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="0"/>
-        <c:smooth val="0"/>
-        <c:axId val="729321991"/>
-        <c:axId val="854054637"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="729321991"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="854054637"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="854054637"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="729321991"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="zh-CN"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5533,46 +4483,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6644,522 +5554,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7216,43 +5610,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4653915" y="254635"/>
+        <a:off x="4722495" y="254635"/>
         <a:ext cx="8190865" cy="4418965"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>500380</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>116840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>309245</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>116205</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="4378960" y="116840"/>
-        <a:ext cx="8952865" cy="4937125"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7554,7 +5913,7 @@
   <sheetPr/>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
@@ -8776,14 +7135,13 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H25"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="22.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="6" width="10" style="3"/>
-    <col min="7" max="7" width="10" style="6"/>
+    <col min="2" max="7" width="10" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -8805,7 +7163,7 @@
       <c r="F1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H1" t="s">
@@ -8831,11 +7189,11 @@
       <c r="F2" s="3">
         <v>592</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="3">
         <v>600</v>
       </c>
       <c r="H2">
-        <f>MIN(B2:G2)</f>
+        <f t="shared" ref="H2:H25" si="0">MIN(B2:G2)</f>
         <v>581</v>
       </c>
     </row>
@@ -8858,11 +7216,11 @@
       <c r="F3" s="3">
         <v>401</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <v>412</v>
       </c>
       <c r="H3">
-        <f>MIN(B3:G3)</f>
+        <f t="shared" si="0"/>
         <v>391</v>
       </c>
     </row>
@@ -8885,11 +7243,11 @@
       <c r="F4" s="3">
         <v>284</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="3">
         <v>303</v>
       </c>
       <c r="H4">
-        <f>MIN(B4:G4)</f>
+        <f t="shared" si="0"/>
         <v>265</v>
       </c>
     </row>
@@ -8912,11 +7270,11 @@
       <c r="F5" s="3">
         <v>3505</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <v>3535</v>
       </c>
       <c r="H5">
-        <f>MIN(B5:G5)</f>
+        <f t="shared" si="0"/>
         <v>3489</v>
       </c>
     </row>
@@ -8939,11 +7297,11 @@
       <c r="F6" s="3">
         <v>2898</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="3">
         <v>3093</v>
       </c>
       <c r="H6">
-        <f>MIN(B6:G6)</f>
+        <f t="shared" si="0"/>
         <v>2784</v>
       </c>
     </row>
@@ -8966,11 +7324,11 @@
       <c r="F7" s="3">
         <v>2456</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="3">
         <v>2456</v>
       </c>
       <c r="H7">
-        <f>MIN(B7:G7)</f>
+        <f t="shared" si="0"/>
         <v>2452</v>
       </c>
     </row>
@@ -8993,11 +7351,11 @@
       <c r="F8" s="3">
         <v>51</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="3">
         <v>51</v>
       </c>
       <c r="H8">
-        <f>MIN(B8:G8)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
@@ -9020,11 +7378,11 @@
       <c r="F9" s="3">
         <v>41</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="3">
         <v>41</v>
       </c>
       <c r="H9">
-        <f>MIN(B9:G9)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
@@ -9047,11 +7405,11 @@
       <c r="F10" s="3">
         <v>33</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>33</v>
       </c>
       <c r="H10">
-        <f>MIN(B10:G10)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
@@ -9068,17 +7426,17 @@
       <c r="D11" s="3">
         <v>957</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>914</v>
       </c>
       <c r="F11" s="3">
         <v>956</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="3">
         <v>924</v>
       </c>
       <c r="H11">
-        <f>MIN(B11:G11)</f>
+        <f t="shared" si="0"/>
         <v>914</v>
       </c>
     </row>
@@ -9101,11 +7459,11 @@
       <c r="F12" s="3">
         <v>655</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="3">
         <v>677</v>
       </c>
       <c r="H12">
-        <f>MIN(B12:G12)</f>
+        <f t="shared" si="0"/>
         <v>655</v>
       </c>
     </row>
@@ -9128,11 +7486,11 @@
       <c r="F13" s="3">
         <v>524</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="3">
         <v>524</v>
       </c>
       <c r="H13">
-        <f>MIN(B13:G13)</f>
+        <f t="shared" si="0"/>
         <v>524</v>
       </c>
     </row>
@@ -9155,11 +7513,11 @@
       <c r="F14" s="3">
         <v>1069</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="3">
         <v>1088</v>
       </c>
       <c r="H14">
-        <f>MIN(B14:G14)</f>
+        <f t="shared" si="0"/>
         <v>1059</v>
       </c>
     </row>
@@ -9182,11 +7540,11 @@
       <c r="F15" s="3">
         <v>737</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="3">
         <v>723</v>
       </c>
       <c r="H15">
-        <f>MIN(B15:G15)</f>
+        <f t="shared" si="0"/>
         <v>723</v>
       </c>
     </row>
@@ -9209,11 +7567,11 @@
       <c r="F16" s="3">
         <v>655</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="3">
         <v>605</v>
       </c>
       <c r="H16">
-        <f>MIN(B16:G16)</f>
+        <f t="shared" si="0"/>
         <v>605</v>
       </c>
     </row>
@@ -9236,11 +7594,11 @@
       <c r="F17" s="3">
         <v>892</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="3">
         <v>885</v>
       </c>
       <c r="H17">
-        <f>MIN(B17:G17)</f>
+        <f t="shared" si="0"/>
         <v>880</v>
       </c>
     </row>
@@ -9263,11 +7621,11 @@
       <c r="F18" s="3">
         <v>648</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="3">
         <v>647</v>
       </c>
       <c r="H18">
-        <f>MIN(B18:G18)</f>
+        <f t="shared" si="0"/>
         <v>644</v>
       </c>
     </row>
@@ -9290,11 +7648,11 @@
       <c r="F19" s="3">
         <v>571</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="3">
         <v>650</v>
       </c>
       <c r="H19">
-        <f>MIN(B19:G19)</f>
+        <f t="shared" si="0"/>
         <v>568</v>
       </c>
     </row>
@@ -9314,14 +7672,14 @@
       <c r="E20" s="3">
         <v>1507</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="3">
         <v>1463</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="3">
         <v>1505</v>
       </c>
       <c r="H20">
-        <f>MIN(B20:G20)</f>
+        <f t="shared" si="0"/>
         <v>1463</v>
       </c>
     </row>
@@ -9344,11 +7702,11 @@
       <c r="F21" s="3">
         <v>1046</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="3">
         <v>1036</v>
       </c>
       <c r="H21">
-        <f>MIN(B21:G21)</f>
+        <f t="shared" si="0"/>
         <v>1036</v>
       </c>
     </row>
@@ -9371,11 +7729,11 @@
       <c r="F22" s="3">
         <v>941</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="3">
         <v>903</v>
       </c>
       <c r="H22">
-        <f>MIN(B22:G22)</f>
+        <f t="shared" si="0"/>
         <v>903</v>
       </c>
     </row>
@@ -9386,7 +7744,7 @@
       <c r="B23" s="3">
         <v>2529</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="3">
         <v>2477</v>
       </c>
       <c r="D23" s="3">
@@ -9398,11 +7756,11 @@
       <c r="F23" s="3">
         <v>2501</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="3">
         <v>2479</v>
       </c>
       <c r="H23">
-        <f>MIN(B23:G23)</f>
+        <f t="shared" si="0"/>
         <v>2477</v>
       </c>
     </row>
@@ -9425,11 +7783,11 @@
       <c r="F24" s="3">
         <v>1774</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="3">
         <v>1733</v>
       </c>
       <c r="H24">
-        <f>MIN(B24:G24)</f>
+        <f t="shared" si="0"/>
         <v>1715</v>
       </c>
     </row>
@@ -9452,11 +7810,11 @@
       <c r="F25" s="3">
         <v>1118</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="3">
         <v>1089</v>
       </c>
       <c r="H25">
-        <f>MIN(B25:G25)</f>
+        <f t="shared" si="0"/>
         <v>1089</v>
       </c>
     </row>
@@ -9470,29 +7828,874 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="15.3333333333333" style="3" customWidth="1"/>
+    <col min="2" max="4" width="10" style="3"/>
+    <col min="5" max="7" width="8.88888888888889" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3">
+        <v>583</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3854</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3600.56941795349</v>
+      </c>
+      <c r="E2" s="3">
+        <v>556</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4774</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3600.77260756492</v>
+      </c>
+      <c r="H2">
+        <f>MIN(B2,E2)</f>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3">
+        <v>385</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2154</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1368.75605177879</v>
+      </c>
+      <c r="E3" s="3">
+        <v>386</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4894</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2492.86430549621</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H25" si="0">MIN(B3,E3)</f>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3">
+        <v>285</v>
+      </c>
+      <c r="C4" s="3">
+        <v>504</v>
+      </c>
+      <c r="D4" s="3">
+        <v>173.776587486267</v>
+      </c>
+      <c r="E4" s="3">
+        <v>285</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1139</v>
+      </c>
+      <c r="G4" s="3">
+        <v>316.372541427612</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3445</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1154</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3607.61545944213</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3472</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1494</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3610.39573025703</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2756</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1709</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3607.50538921356</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2808</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2079</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3361.41352462768</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2456</v>
+      </c>
+      <c r="C7" s="3">
+        <v>744</v>
+      </c>
+      <c r="D7" s="3">
+        <v>831.407161235809</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2456</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1289</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1119.29153847694</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3">
+        <v>51</v>
+      </c>
+      <c r="C8" s="3">
+        <v>129</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6.21190977096557</v>
+      </c>
+      <c r="E8" s="3">
+        <v>51</v>
+      </c>
+      <c r="F8" s="3">
+        <v>139</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4.85820388793945</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3">
+        <v>41</v>
+      </c>
+      <c r="C9" s="3">
+        <v>109</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4.38961911201477</v>
+      </c>
+      <c r="E9" s="3">
+        <v>41</v>
+      </c>
+      <c r="F9" s="3">
+        <v>209</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5.98296666145324</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3">
+        <v>309</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7.49287056922912</v>
+      </c>
+      <c r="E10" s="3">
+        <v>34</v>
+      </c>
+      <c r="F10" s="3">
+        <v>59</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1.04662871360778</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3">
+        <v>923</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2064</v>
+      </c>
+      <c r="D11" s="3">
+        <v>591.87052488327</v>
+      </c>
+      <c r="E11" s="3">
+        <v>923</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1984</v>
+      </c>
+      <c r="G11" s="3">
+        <v>411.381423950195</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3">
+        <v>664</v>
+      </c>
+      <c r="C12" s="3">
+        <v>314</v>
+      </c>
+      <c r="D12" s="3">
+        <v>64.500295639038</v>
+      </c>
+      <c r="E12" s="3">
+        <v>664</v>
+      </c>
+      <c r="F12" s="3">
+        <v>774</v>
+      </c>
+      <c r="G12" s="3">
+        <v>115.285401582717</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3">
+        <v>524</v>
+      </c>
+      <c r="C13" s="3">
+        <v>304</v>
+      </c>
+      <c r="D13" s="3">
+        <v>35.0859470367431</v>
+      </c>
+      <c r="E13" s="3">
+        <v>524</v>
+      </c>
+      <c r="F13" s="3">
+        <v>209</v>
+      </c>
+      <c r="G13" s="3">
+        <v>17.2615687847137</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1032</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5539</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2518.97552585601</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1047</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3674</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1218.03705501556</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3">
+        <v>762</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2114</v>
+      </c>
+      <c r="D15" s="3">
+        <v>671.391659975051</v>
+      </c>
+      <c r="E15" s="3">
+        <v>746</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1899</v>
+      </c>
+      <c r="G15" s="3">
+        <v>462.766229391098</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>746</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3">
+        <v>605</v>
+      </c>
+      <c r="C16" s="3">
+        <v>429</v>
+      </c>
+      <c r="D16" s="3">
+        <v>73.8682844638824</v>
+      </c>
+      <c r="E16" s="3">
+        <v>585</v>
+      </c>
+      <c r="F16" s="3">
+        <v>494</v>
+      </c>
+      <c r="G16" s="3">
+        <v>66.1719443798065</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3">
+        <v>886</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1269</v>
+      </c>
+      <c r="D17" s="3">
+        <v>213.817289590835</v>
+      </c>
+      <c r="E17" s="3">
+        <v>928</v>
+      </c>
+      <c r="F17" s="3">
+        <v>479</v>
+      </c>
+      <c r="G17" s="3">
+        <v>59.5172634124755</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>886</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3">
+        <v>644</v>
+      </c>
+      <c r="C18" s="3">
+        <v>649</v>
+      </c>
+      <c r="D18" s="3">
+        <v>76.4721102714538</v>
+      </c>
+      <c r="E18" s="3">
+        <v>644</v>
+      </c>
+      <c r="F18" s="3">
+        <v>534</v>
+      </c>
+      <c r="G18" s="3">
+        <v>46.4890747070312</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3">
+        <v>583</v>
+      </c>
+      <c r="C19" s="3">
+        <v>644</v>
+      </c>
+      <c r="D19" s="3">
+        <v>46.3112740516662</v>
+      </c>
+      <c r="E19" s="3">
+        <v>530</v>
+      </c>
+      <c r="F19" s="3">
+        <v>464</v>
+      </c>
+      <c r="G19" s="3">
+        <v>26.4312896728515</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1459</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2364</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3601.50723099708</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1456</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2859</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3600.57808804512</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1046</v>
+      </c>
+      <c r="C21" s="3">
+        <v>864</v>
+      </c>
+      <c r="D21" s="3">
+        <v>903.176993370056</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1036</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4174</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3602.77287578582</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="3">
+        <v>869</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1189</v>
+      </c>
+      <c r="D22" s="3">
+        <v>678.235025644302</v>
+      </c>
+      <c r="E22" s="3">
+        <v>941</v>
+      </c>
+      <c r="F22" s="3">
+        <v>529</v>
+      </c>
+      <c r="G22" s="3">
+        <v>249.035215377807</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2566</v>
+      </c>
+      <c r="C23" s="3">
+        <v>459</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3619.41525673866</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2480</v>
+      </c>
+      <c r="F23" s="3">
+        <v>549</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3619.10202884674</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1694</v>
+      </c>
+      <c r="C24" s="3">
+        <v>679</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3607.79942941665</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1714</v>
+      </c>
+      <c r="F24" s="3">
+        <v>814</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3613.32270979881</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1071</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1319</v>
+      </c>
+      <c r="D25" s="3">
+        <v>3603.60498619079</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1059</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1569</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3601.52612781524</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>1059</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.3333333333333" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -9502,8 +8705,11 @@
       <c r="C2">
         <v>581</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -9513,8 +8719,11 @@
       <c r="C3">
         <v>391</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -9524,8 +8733,11 @@
       <c r="C4">
         <v>265</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -9535,8 +8747,11 @@
       <c r="C5" s="4">
         <v>3489</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="3">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -9546,8 +8761,11 @@
       <c r="C6">
         <v>2784</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="3">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -9557,8 +8775,11 @@
       <c r="C7">
         <v>2452</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="3">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -9568,8 +8789,11 @@
       <c r="C8" s="4">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -9579,8 +8803,11 @@
       <c r="C9" s="4">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -9590,8 +8817,11 @@
       <c r="C10" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -9601,8 +8831,11 @@
       <c r="C11">
         <v>914</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="3">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -9612,8 +8845,11 @@
       <c r="C12">
         <v>655</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="3">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -9623,8 +8859,11 @@
       <c r="C13">
         <v>524</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -9634,8 +8873,11 @@
       <c r="C14">
         <v>1059</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="3">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -9645,8 +8887,11 @@
       <c r="C15">
         <v>723</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="3">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -9656,8 +8901,11 @@
       <c r="C16">
         <v>605</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -9667,8 +8915,11 @@
       <c r="C17" s="5">
         <v>880</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="3">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
@@ -9678,8 +8929,11 @@
       <c r="C18">
         <v>644</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="3">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -9689,8 +8943,11 @@
       <c r="C19" s="5">
         <v>568</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -9700,8 +8957,11 @@
       <c r="C20">
         <v>1463</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="3">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -9711,8 +8971,11 @@
       <c r="C21">
         <v>1036</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="3">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -9722,8 +8985,11 @@
       <c r="C22" s="5">
         <v>903</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="3">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -9733,8 +8999,11 @@
       <c r="C23">
         <v>2477</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="3">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -9744,8 +9013,11 @@
       <c r="C24" s="4">
         <v>1715</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="3">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -9754,6 +9026,9 @@
       </c>
       <c r="C25">
         <v>1089</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1071</v>
       </c>
     </row>
   </sheetData>
@@ -9764,45 +9039,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B$1:F$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5555555555556" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.2222222222222" style="1" customWidth="1"/>
     <col min="3" max="4" width="11.5555555555556" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" ht="28.8" spans="1:5">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" ht="28.8" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3">
         <v>53</v>
@@ -9811,15 +9089,18 @@
         <v>51</v>
       </c>
       <c r="E2">
+        <v>51</v>
+      </c>
+      <c r="F2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" ht="28.8" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C3" s="3">
         <v>42</v>
@@ -9828,15 +9109,18 @@
         <v>41</v>
       </c>
       <c r="E3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" ht="28.8" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3">
         <v>44</v>
@@ -9845,15 +9129,18 @@
         <v>33</v>
       </c>
       <c r="E4">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" ht="28.8" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C5" s="3">
         <v>870</v>
@@ -9864,13 +9151,16 @@
       <c r="E5">
         <v>880</v>
       </c>
-    </row>
-    <row r="6" ht="28.8" spans="1:5">
+      <c r="F5">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C6" s="3">
         <v>644</v>
@@ -9881,13 +9171,16 @@
       <c r="E6">
         <v>644</v>
       </c>
-    </row>
-    <row r="7" ht="28.8" spans="1:5">
+      <c r="F6">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3">
         <v>650</v>
@@ -9896,15 +9189,18 @@
         <v>579</v>
       </c>
       <c r="E7">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="8" ht="28.8" spans="1:5">
+        <v>568</v>
+      </c>
+      <c r="F7">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3">
         <v>929</v>
@@ -9913,15 +9209,18 @@
         <v>936</v>
       </c>
       <c r="E8">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="9" ht="28.8" spans="1:5">
+        <v>914</v>
+      </c>
+      <c r="F8">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="9" ht="28.8" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C9" s="3">
         <v>654</v>
@@ -9930,15 +9229,18 @@
         <v>646</v>
       </c>
       <c r="E9">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="10" ht="28.8" spans="1:5">
+        <v>655</v>
+      </c>
+      <c r="F9">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C10" s="3">
         <v>524</v>
@@ -9949,13 +9251,16 @@
       <c r="E10">
         <v>524</v>
       </c>
-    </row>
-    <row r="11" ht="28.8" spans="1:5">
+      <c r="F10">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="11" ht="28.8" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3">
         <v>1033</v>
@@ -9964,15 +9269,18 @@
         <v>1007</v>
       </c>
       <c r="E11">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="12" ht="28.8" spans="1:5">
+        <v>1059</v>
+      </c>
+      <c r="F11">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="12" ht="28.8" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C12" s="3">
         <v>737</v>
@@ -9981,15 +9289,18 @@
         <v>730</v>
       </c>
       <c r="E12">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="13" ht="28.8" spans="1:5">
+        <v>723</v>
+      </c>
+      <c r="F12">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="13" ht="28.8" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C13" s="3">
         <v>611</v>
@@ -9998,15 +9309,18 @@
         <v>644</v>
       </c>
       <c r="E13">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="14" ht="28.8" spans="1:5">
+        <v>605</v>
+      </c>
+      <c r="F13">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="14" ht="28.8" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C14" s="3">
         <v>562</v>
@@ -10015,15 +9329,18 @@
         <v>597</v>
       </c>
       <c r="E14">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="15" ht="28.8" spans="1:5">
+        <v>581</v>
+      </c>
+      <c r="F14">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="15" ht="28.8" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C15" s="3">
         <v>385</v>
@@ -10032,15 +9349,18 @@
         <v>396</v>
       </c>
       <c r="E15">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="16" ht="28.8" spans="1:5">
+        <v>391</v>
+      </c>
+      <c r="F15">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" ht="28.8" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C16" s="3">
         <v>285</v>
@@ -10049,15 +9369,18 @@
         <v>303</v>
       </c>
       <c r="E16">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="17" ht="28.8" spans="1:5">
+        <v>265</v>
+      </c>
+      <c r="F16">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" ht="28.8" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C17" s="3">
         <v>1477</v>
@@ -10066,15 +9389,18 @@
         <v>1414</v>
       </c>
       <c r="E17">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="18" ht="28.8" spans="1:5">
+        <v>1463</v>
+      </c>
+      <c r="F17">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="18" ht="28.8" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C18" s="3">
         <v>1046</v>
@@ -10083,15 +9409,18 @@
         <v>1036</v>
       </c>
       <c r="E18">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="19" ht="28.8" spans="1:5">
+        <v>1036</v>
+      </c>
+      <c r="F18">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="19" ht="28.8" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C19" s="3">
         <v>903</v>
@@ -10100,15 +9429,18 @@
         <v>941</v>
       </c>
       <c r="E19">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="20" ht="28.8" spans="1:5">
+        <v>903</v>
+      </c>
+      <c r="F19">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="20" ht="28.8" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C20" s="3">
         <v>3452</v>
@@ -10117,15 +9449,18 @@
         <v>3643</v>
       </c>
       <c r="E20">
-        <v>3549</v>
-      </c>
-    </row>
-    <row r="21" ht="28.8" spans="1:5">
+        <v>3489</v>
+      </c>
+      <c r="F20">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="21" ht="28.8" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C21" s="3">
         <v>2917</v>
@@ -10134,15 +9469,18 @@
         <v>2754</v>
       </c>
       <c r="E21">
-        <v>2767</v>
-      </c>
-    </row>
-    <row r="22" ht="28.8" spans="1:5">
+        <v>2784</v>
+      </c>
+      <c r="F21">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="22" ht="28.8" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C22" s="3">
         <v>2463</v>
@@ -10151,15 +9489,18 @@
         <v>2458</v>
       </c>
       <c r="E22">
+        <v>2452</v>
+      </c>
+      <c r="F22">
         <v>2456</v>
       </c>
     </row>
-    <row r="23" ht="28.8" spans="1:5">
+    <row r="23" ht="28.8" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C23" s="3">
         <v>2503</v>
@@ -10168,15 +9509,18 @@
         <v>2510</v>
       </c>
       <c r="E23">
-        <v>2468</v>
-      </c>
-    </row>
-    <row r="24" ht="28.8" spans="1:5">
+        <v>2477</v>
+      </c>
+      <c r="F23">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="24" ht="28.8" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C24" s="3">
         <v>1768</v>
@@ -10185,15 +9529,18 @@
         <v>1711</v>
       </c>
       <c r="E24">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="25" ht="28.8" spans="1:5">
+        <v>1715</v>
+      </c>
+      <c r="F24">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="25" ht="28.8" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C25" s="3">
         <v>1111</v>
@@ -10202,12 +9549,14 @@
         <v>1026</v>
       </c>
       <c r="E25">
-        <v>1119</v>
+        <v>1089</v>
+      </c>
+      <c r="F25">
+        <v>1059</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SPP3-dynamic-small.xlsx
+++ b/SPP3-dynamic-small.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="10308" activeTab="5"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PDR" sheetId="1" r:id="rId1"/>
@@ -604,13 +604,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,7 +1057,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1076,7 +1076,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1085,7 +1091,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4358,76 +4364,76 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>ft06_new_25_7x6</c:v>
+                  <c:v>ft06_new_25%_7x6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ft06_new_50_7x6</c:v>
+                  <c:v>ft06_new_50%_7x6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ft06_new_75_7x6</c:v>
+                  <c:v>ft06_new_75%_7x6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>orb01_new_25_11x10</c:v>
+                  <c:v>orb01_new_25%_11x10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>orb01_new_50_11x10</c:v>
+                  <c:v>orb01_new_50%_11x10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>orb01_new_75_11x10</c:v>
+                  <c:v>orb01_new_75%_11x10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>la21_new_25_16x10</c:v>
+                  <c:v>la21_new_25%_16x10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>la21_new_50_16x10</c:v>
+                  <c:v>la21_new_50%_16x10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>la21_new_75_16x10</c:v>
+                  <c:v>la21_new_75%_16x10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>la26_new_25_21x10</c:v>
+                  <c:v>la26_new_25%_21x10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>la26_new_50_21x10</c:v>
+                  <c:v>la26_new_50%_21x10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>la26_new_75_21x10</c:v>
+                  <c:v>la26_new_75%_21x10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>abz7_new_25_21x15</c:v>
+                  <c:v>abz7_new_25%_21x15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>abz7_new_50_21x15</c:v>
+                  <c:v>abz7_new_50%_21x15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>abz7_new_75_21x15</c:v>
+                  <c:v>abz7_new_75%_21x15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>ta21_new_25_21x20</c:v>
+                  <c:v>ta21_new_25%_21x20</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>ta21_new_50_21x20</c:v>
+                  <c:v>ta21_new_50%_21x20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>ta21_new_75_21x20</c:v>
+                  <c:v>ta21_new_75%_21x20</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>dmu16_new_25_31x20</c:v>
+                  <c:v>dmu16_new_25%_31x20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>dmu16_new_50_31x20</c:v>
+                  <c:v>dmu16_new_50%_31x20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>dmu16_new_75_31x20</c:v>
+                  <c:v>dmu16_new_75%_31x20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>ta61_new_25_51x20</c:v>
+                  <c:v>ta61_new_25%_51x20</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>ta61_new_50_51x20</c:v>
+                  <c:v>ta61_new_50%_51x20</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>ta61_new_75_51x20</c:v>
+                  <c:v>ta61_new_75%_51x20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4552,76 +4558,76 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>ft06_new_25_7x6</c:v>
+                  <c:v>ft06_new_25%_7x6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ft06_new_50_7x6</c:v>
+                  <c:v>ft06_new_50%_7x6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ft06_new_75_7x6</c:v>
+                  <c:v>ft06_new_75%_7x6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>orb01_new_25_11x10</c:v>
+                  <c:v>orb01_new_25%_11x10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>orb01_new_50_11x10</c:v>
+                  <c:v>orb01_new_50%_11x10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>orb01_new_75_11x10</c:v>
+                  <c:v>orb01_new_75%_11x10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>la21_new_25_16x10</c:v>
+                  <c:v>la21_new_25%_16x10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>la21_new_50_16x10</c:v>
+                  <c:v>la21_new_50%_16x10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>la21_new_75_16x10</c:v>
+                  <c:v>la21_new_75%_16x10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>la26_new_25_21x10</c:v>
+                  <c:v>la26_new_25%_21x10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>la26_new_50_21x10</c:v>
+                  <c:v>la26_new_50%_21x10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>la26_new_75_21x10</c:v>
+                  <c:v>la26_new_75%_21x10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>abz7_new_25_21x15</c:v>
+                  <c:v>abz7_new_25%_21x15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>abz7_new_50_21x15</c:v>
+                  <c:v>abz7_new_50%_21x15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>abz7_new_75_21x15</c:v>
+                  <c:v>abz7_new_75%_21x15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>ta21_new_25_21x20</c:v>
+                  <c:v>ta21_new_25%_21x20</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>ta21_new_50_21x20</c:v>
+                  <c:v>ta21_new_50%_21x20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>ta21_new_75_21x20</c:v>
+                  <c:v>ta21_new_75%_21x20</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>dmu16_new_25_31x20</c:v>
+                  <c:v>dmu16_new_25%_31x20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>dmu16_new_50_31x20</c:v>
+                  <c:v>dmu16_new_50%_31x20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>dmu16_new_75_31x20</c:v>
+                  <c:v>dmu16_new_75%_31x20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>ta61_new_25_51x20</c:v>
+                  <c:v>ta61_new_25%_51x20</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>ta61_new_50_51x20</c:v>
+                  <c:v>ta61_new_50%_51x20</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>ta61_new_75_51x20</c:v>
+                  <c:v>ta61_new_75%_51x20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4746,76 +4752,76 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>ft06_new_25_7x6</c:v>
+                  <c:v>ft06_new_25%_7x6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ft06_new_50_7x6</c:v>
+                  <c:v>ft06_new_50%_7x6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ft06_new_75_7x6</c:v>
+                  <c:v>ft06_new_75%_7x6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>orb01_new_25_11x10</c:v>
+                  <c:v>orb01_new_25%_11x10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>orb01_new_50_11x10</c:v>
+                  <c:v>orb01_new_50%_11x10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>orb01_new_75_11x10</c:v>
+                  <c:v>orb01_new_75%_11x10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>la21_new_25_16x10</c:v>
+                  <c:v>la21_new_25%_16x10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>la21_new_50_16x10</c:v>
+                  <c:v>la21_new_50%_16x10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>la21_new_75_16x10</c:v>
+                  <c:v>la21_new_75%_16x10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>la26_new_25_21x10</c:v>
+                  <c:v>la26_new_25%_21x10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>la26_new_50_21x10</c:v>
+                  <c:v>la26_new_50%_21x10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>la26_new_75_21x10</c:v>
+                  <c:v>la26_new_75%_21x10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>abz7_new_25_21x15</c:v>
+                  <c:v>abz7_new_25%_21x15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>abz7_new_50_21x15</c:v>
+                  <c:v>abz7_new_50%_21x15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>abz7_new_75_21x15</c:v>
+                  <c:v>abz7_new_75%_21x15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>ta21_new_25_21x20</c:v>
+                  <c:v>ta21_new_25%_21x20</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>ta21_new_50_21x20</c:v>
+                  <c:v>ta21_new_50%_21x20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>ta21_new_75_21x20</c:v>
+                  <c:v>ta21_new_75%_21x20</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>dmu16_new_25_31x20</c:v>
+                  <c:v>dmu16_new_25%_31x20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>dmu16_new_50_31x20</c:v>
+                  <c:v>dmu16_new_50%_31x20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>dmu16_new_75_31x20</c:v>
+                  <c:v>dmu16_new_75%_31x20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>ta61_new_25_51x20</c:v>
+                  <c:v>ta61_new_25%_51x20</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>ta61_new_50_51x20</c:v>
+                  <c:v>ta61_new_50%_51x20</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>ta61_new_75_51x20</c:v>
+                  <c:v>ta61_new_75%_51x20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4940,76 +4946,76 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>ft06_new_25_7x6</c:v>
+                  <c:v>ft06_new_25%_7x6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ft06_new_50_7x6</c:v>
+                  <c:v>ft06_new_50%_7x6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ft06_new_75_7x6</c:v>
+                  <c:v>ft06_new_75%_7x6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>orb01_new_25_11x10</c:v>
+                  <c:v>orb01_new_25%_11x10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>orb01_new_50_11x10</c:v>
+                  <c:v>orb01_new_50%_11x10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>orb01_new_75_11x10</c:v>
+                  <c:v>orb01_new_75%_11x10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>la21_new_25_16x10</c:v>
+                  <c:v>la21_new_25%_16x10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>la21_new_50_16x10</c:v>
+                  <c:v>la21_new_50%_16x10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>la21_new_75_16x10</c:v>
+                  <c:v>la21_new_75%_16x10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>la26_new_25_21x10</c:v>
+                  <c:v>la26_new_25%_21x10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>la26_new_50_21x10</c:v>
+                  <c:v>la26_new_50%_21x10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>la26_new_75_21x10</c:v>
+                  <c:v>la26_new_75%_21x10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>abz7_new_25_21x15</c:v>
+                  <c:v>abz7_new_25%_21x15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>abz7_new_50_21x15</c:v>
+                  <c:v>abz7_new_50%_21x15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>abz7_new_75_21x15</c:v>
+                  <c:v>abz7_new_75%_21x15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>ta21_new_25_21x20</c:v>
+                  <c:v>ta21_new_25%_21x20</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>ta21_new_50_21x20</c:v>
+                  <c:v>ta21_new_50%_21x20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>ta21_new_75_21x20</c:v>
+                  <c:v>ta21_new_75%_21x20</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>dmu16_new_25_31x20</c:v>
+                  <c:v>dmu16_new_25%_31x20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>dmu16_new_50_31x20</c:v>
+                  <c:v>dmu16_new_50%_31x20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>dmu16_new_75_31x20</c:v>
+                  <c:v>dmu16_new_75%_31x20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>ta61_new_25_51x20</c:v>
+                  <c:v>ta61_new_25%_51x20</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>ta61_new_50_51x20</c:v>
+                  <c:v>ta61_new_50%_51x20</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>ta61_new_75_51x20</c:v>
+                  <c:v>ta61_new_75%_51x20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10394,15 +10400,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>383540</xdr:colOff>
+      <xdr:colOff>487045</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>145415</xdr:rowOff>
+      <xdr:rowOff>36195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>157480</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>116205</xdr:rowOff>
+      <xdr:colOff>260985</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10410,7 +10416,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="993140" y="284480"/>
+        <a:off x="1096645" y="219075"/>
         <a:ext cx="6967220" cy="4322445"/>
       </xdr:xfrm>
       <a:graphic>
@@ -10808,8 +10814,8 @@
   <sheetPr/>
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="C27" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -11037,7 +11043,7 @@
       <c r="E5" s="1">
         <v>1021</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="11">
         <v>874</v>
       </c>
       <c r="G5" s="1">
@@ -11068,7 +11074,7 @@
         <f t="shared" si="0"/>
         <v>874</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="7">
         <v>886</v>
       </c>
     </row>
@@ -11094,7 +11100,7 @@
       <c r="G6" s="1">
         <v>720</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="11">
         <v>644</v>
       </c>
       <c r="I6" s="1">
@@ -11119,7 +11125,7 @@
         <f t="shared" si="0"/>
         <v>644</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="7">
         <v>650.4</v>
       </c>
     </row>
@@ -11343,7 +11349,7 @@
       <c r="E11" s="1">
         <v>1155</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="11">
         <v>1063</v>
       </c>
       <c r="G11" s="1">
@@ -11374,7 +11380,7 @@
         <f t="shared" si="0"/>
         <v>1063</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="7">
         <v>1075.8</v>
       </c>
     </row>
@@ -11499,7 +11505,7 @@
       <c r="F14" s="1">
         <v>606</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="11">
         <v>589</v>
       </c>
       <c r="H14" s="1">
@@ -11527,7 +11533,7 @@
         <f t="shared" si="0"/>
         <v>589</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="7">
         <v>596.4</v>
       </c>
     </row>
@@ -11550,7 +11556,7 @@
       <c r="F15" s="1">
         <v>427</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="11">
         <v>401</v>
       </c>
       <c r="H15" s="1">
@@ -11578,7 +11584,7 @@
         <f t="shared" si="0"/>
         <v>401</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="7">
         <v>403.2</v>
       </c>
     </row>
@@ -11766,7 +11772,7 @@
       <c r="J19" s="1">
         <v>1040</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="11">
         <v>882</v>
       </c>
       <c r="L19" s="1">
@@ -11782,7 +11788,7 @@
         <f t="shared" si="0"/>
         <v>882</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="7">
         <v>893</v>
       </c>
     </row>
@@ -12160,7 +12166,7 @@
       <c r="F2" s="4">
         <v>600</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="7">
         <f>AVERAGE(B2:F2)</f>
         <v>596.4</v>
       </c>
@@ -12184,7 +12190,7 @@
       <c r="F3" s="4">
         <v>412</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <f t="shared" ref="G3:G25" si="0">AVERAGE(B3:F3)</f>
         <v>403.2</v>
       </c>
@@ -12232,7 +12238,7 @@
       <c r="F5" s="4">
         <v>3496</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>3507.2</v>
       </c>
@@ -12280,7 +12286,7 @@
       <c r="F7" s="4">
         <v>2456</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>2455.8</v>
       </c>
@@ -12448,7 +12454,7 @@
       <c r="F14" s="4">
         <v>1088</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="7">
         <f t="shared" si="0"/>
         <v>1075.8</v>
       </c>
@@ -12520,7 +12526,7 @@
       <c r="F17" s="4">
         <v>885</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="7">
         <f t="shared" si="0"/>
         <v>886</v>
       </c>
@@ -12544,7 +12550,7 @@
       <c r="F18" s="4">
         <v>647</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="7">
         <f t="shared" si="0"/>
         <v>650.4</v>
       </c>
@@ -12640,7 +12646,7 @@
       <c r="F22" s="4">
         <v>887</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="7">
         <f t="shared" si="0"/>
         <v>893</v>
       </c>
@@ -12688,7 +12694,7 @@
       <c r="F24" s="4">
         <v>1720</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="9">
         <f t="shared" si="0"/>
         <v>1714.8</v>
       </c>
@@ -12826,11 +12832,11 @@
       <c r="K2" s="4">
         <v>3074.30009698867</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="8">
         <f t="shared" ref="L2:L25" si="0">AVERAGE(C2,F2,I2)</f>
         <v>557.333333333333</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="9">
         <f t="shared" ref="M2:M25" si="1">AVERAGE(E2,H2,K2)</f>
         <v>3020.30347458521</v>
       </c>
@@ -12875,11 +12881,11 @@
       <c r="K3" s="4">
         <v>369.790131568908</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="9">
         <f t="shared" si="0"/>
         <v>393</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="9">
         <f t="shared" si="1"/>
         <v>697.385738452275</v>
       </c>
@@ -12924,11 +12930,11 @@
       <c r="K4" s="4">
         <v>209.906641721725</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="10">
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="9">
         <f t="shared" si="1"/>
         <v>192.736707369486</v>
       </c>
@@ -12977,7 +12983,7 @@
         <f t="shared" si="0"/>
         <v>3459</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="9">
         <f t="shared" si="1"/>
         <v>3608.48987793922</v>
       </c>
@@ -13026,7 +13032,7 @@
         <f t="shared" si="0"/>
         <v>2734.66666666667</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="9">
         <f t="shared" si="1"/>
         <v>3535.10153237978</v>
       </c>
@@ -13075,7 +13081,7 @@
         <f t="shared" si="0"/>
         <v>2456</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="9">
         <f t="shared" si="1"/>
         <v>928.70171523094</v>
       </c>
@@ -13124,7 +13130,7 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="9">
         <f t="shared" si="1"/>
         <v>4.75395901997884</v>
       </c>
@@ -13173,7 +13179,7 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="9">
         <f t="shared" si="1"/>
         <v>4.9680434068044</v>
       </c>
@@ -13222,7 +13228,7 @@
         <f t="shared" si="0"/>
         <v>33.6666666666667</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="9">
         <f t="shared" si="1"/>
         <v>3.96125968297322</v>
       </c>
@@ -13271,7 +13277,7 @@
         <f t="shared" si="0"/>
         <v>916.666666666667</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="9">
         <f t="shared" si="1"/>
         <v>230.739160537719</v>
       </c>
@@ -13320,7 +13326,7 @@
         <f t="shared" si="0"/>
         <v>664</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="9">
         <f t="shared" si="1"/>
         <v>86.3899765809374</v>
       </c>
@@ -13369,7 +13375,7 @@
         <f t="shared" si="0"/>
         <v>524</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="9">
         <f t="shared" si="1"/>
         <v>24.4385311603546</v>
       </c>
@@ -13418,7 +13424,7 @@
         <f t="shared" si="0"/>
         <v>1023</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="9">
         <f t="shared" si="1"/>
         <v>1058.11651198069</v>
       </c>
@@ -13467,7 +13473,7 @@
         <f t="shared" si="0"/>
         <v>730.666666666667</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="9">
         <f t="shared" si="1"/>
         <v>478.548144578933</v>
       </c>
@@ -13516,7 +13522,7 @@
         <f t="shared" si="0"/>
         <v>591.666666666667</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="9">
         <f t="shared" si="1"/>
         <v>65.6414234638214</v>
       </c>
@@ -13561,11 +13567,11 @@
       <c r="K17" s="4">
         <v>114.95735168457</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="8">
         <f t="shared" si="0"/>
         <v>868.666666666667</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="9">
         <f t="shared" si="1"/>
         <v>98.7302116181691</v>
       </c>
@@ -13614,7 +13620,7 @@
         <f t="shared" si="0"/>
         <v>644</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="9">
         <f t="shared" si="1"/>
         <v>54.1741761366526</v>
       </c>
@@ -13659,11 +13665,11 @@
       <c r="K19" s="4">
         <v>25.7651073932647</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="8">
         <f t="shared" si="0"/>
         <v>570.666666666667</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="9">
         <f t="shared" si="1"/>
         <v>32.8358903725941</v>
       </c>
@@ -13712,7 +13718,7 @@
         <f t="shared" si="0"/>
         <v>1434</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="9">
         <f t="shared" si="1"/>
         <v>2862.94651762644</v>
       </c>
@@ -13761,7 +13767,7 @@
         <f t="shared" si="0"/>
         <v>1042.66666666667</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="9">
         <f t="shared" si="1"/>
         <v>1110.92899727821</v>
       </c>
@@ -13810,7 +13816,7 @@
         <f t="shared" si="0"/>
         <v>901.666666666667</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="9">
         <f t="shared" si="1"/>
         <v>237.184115472284</v>
       </c>
@@ -13859,7 +13865,7 @@
         <f t="shared" si="0"/>
         <v>2440.66666666667</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="9">
         <f t="shared" si="1"/>
         <v>3630.83976940282</v>
       </c>
@@ -13908,7 +13914,7 @@
         <f t="shared" si="0"/>
         <v>1703</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="9">
         <f t="shared" si="1"/>
         <v>3614.90899157524</v>
       </c>
@@ -13953,11 +13959,11 @@
       <c r="K25" s="4">
         <v>3603.9677863121</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="9">
         <f t="shared" si="0"/>
         <v>1055.33333333333</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="8">
         <f t="shared" si="1"/>
         <v>3602.36534682909</v>
       </c>
@@ -15002,8 +15008,8 @@
   <sheetPr/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -15048,12 +15054,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="8" customHeight="1" spans="1:11">
+    <row r="2" s="3" customFormat="1" ht="14" customHeight="1" spans="1:11">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3">
         <v>51</v>
@@ -15064,7 +15070,7 @@
       <c r="E2" s="3">
         <v>51</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="6">
         <v>51.3333333333333</v>
       </c>
       <c r="G2" s="3">
@@ -15093,7 +15099,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>41</v>
@@ -15133,7 +15139,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>33</v>
@@ -15141,7 +15147,7 @@
       <c r="D4">
         <v>33</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <v>33.6666666666667</v>
       </c>
       <c r="F4">
@@ -15173,7 +15179,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>874</v>
@@ -15213,7 +15219,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>644</v>
@@ -15253,7 +15259,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>571</v>
@@ -15293,7 +15299,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>968</v>
@@ -15333,7 +15339,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>692</v>
@@ -15373,7 +15379,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>524</v>
@@ -15384,7 +15390,7 @@
       <c r="E10">
         <v>524</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="7">
         <v>536.666666666667</v>
       </c>
       <c r="G10">
@@ -15413,7 +15419,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>1063</v>
@@ -15453,7 +15459,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>804</v>
@@ -15493,7 +15499,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>671</v>
@@ -15533,7 +15539,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>589</v>
@@ -15573,7 +15579,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>401</v>
@@ -15613,7 +15619,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>297</v>
@@ -15653,7 +15659,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>1528</v>
@@ -15693,7 +15699,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>1046</v>
@@ -15704,7 +15710,7 @@
       <c r="E18">
         <v>1039.33333333333</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="7">
         <v>1054.66666666667</v>
       </c>
       <c r="G18">
@@ -15733,7 +15739,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>882</v>
@@ -15741,10 +15747,10 @@
       <c r="D19">
         <v>893</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="7">
         <v>901.666666666667</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="7">
         <v>934.666666666667</v>
       </c>
       <c r="G19">
@@ -15773,7 +15779,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>3509</v>
@@ -15813,7 +15819,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>3074</v>
@@ -15853,7 +15859,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>2456</v>
@@ -15893,7 +15899,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>2542</v>
@@ -15933,7 +15939,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>1731</v>
@@ -15944,7 +15950,7 @@
       <c r="E24">
         <v>1703</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="7">
         <v>1739.66666666667</v>
       </c>
       <c r="G24">
@@ -15973,7 +15979,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>1119</v>
@@ -16024,7 +16030,7 @@
   <sheetPr/>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
